--- a/main/ig/StructureDefinition-fr-diagnostic-report-bio-chapter-document.xlsx
+++ b/main/ig/StructureDefinition-fr-diagnostic-report-bio-chapter-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T13:49:34+00:00</t>
+    <t>2026-01-19T11:08:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-diagnostic-report-bio-chapter-document.xlsx
+++ b/main/ig/StructureDefinition-fr-diagnostic-report-bio-chapter-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T11:08:31+00:00</t>
+    <t>2026-01-19T13:54:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-diagnostic-report-bio-chapter-document.xlsx
+++ b/main/ig/StructureDefinition-fr-diagnostic-report-bio-chapter-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-19T13:54:24+00:00</t>
+    <t>2026-01-23T08:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-diagnostic-report-bio-chapter-document.xlsx
+++ b/main/ig/StructureDefinition-fr-diagnostic-report-bio-chapter-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-23T08:28:04+00:00</t>
+    <t>2026-01-28T14:36:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-diagnostic-report-bio-chapter-document.xlsx
+++ b/main/ig/StructureDefinition-fr-diagnostic-report-bio-chapter-document.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T14:36:08+00:00</t>
+    <t>2026-02-05T08:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
